--- a/Results/20 Species - Same Weight/SEQUENCE-FINAL.xlsx
+++ b/Results/20 Species - Same Weight/SEQUENCE-FINAL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3346" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="1857">
   <si>
     <t>CCA</t>
   </si>
@@ -5583,6 +5583,9 @@
   </si>
   <si>
     <t>AATAATATAAT</t>
+  </si>
+  <si>
+    <t>AG</t>
   </si>
 </sst>
 </file>
@@ -5727,7 +5730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5760,9 +5763,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6071,8 +6071,8 @@
   </sheetPr>
   <dimension ref="A1:AO1188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6088,7 +6088,7 @@
     <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="1"/>
+    <col min="12" max="41" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6116,62 +6116,62 @@
         <v>6</v>
       </c>
       <c r="M1" s="11"/>
-      <c r="N1" s="8">
+      <c r="N1" s="10">
         <v>7</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="8">
+      <c r="O1" s="11"/>
+      <c r="P1" s="10">
         <v>8</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="8">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="10">
         <v>9</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="8">
+      <c r="S1" s="11"/>
+      <c r="T1" s="10">
         <v>10</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="8">
+      <c r="U1" s="11"/>
+      <c r="V1" s="10">
         <v>11</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="8">
+      <c r="W1" s="11"/>
+      <c r="X1" s="10">
         <v>12</v>
       </c>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="8">
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="10">
         <v>13</v>
       </c>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="8">
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="10">
         <v>14</v>
       </c>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="8">
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="10">
         <v>15</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="8">
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="10">
         <v>16</v>
       </c>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="8">
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="10">
         <v>17</v>
       </c>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="8">
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="10">
         <v>18</v>
       </c>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="8">
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="10">
         <v>19</v>
       </c>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="8">
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="10">
         <v>20</v>
       </c>
-      <c r="AO1" s="9"/>
+      <c r="AO1" s="11"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -6209,11 +6209,89 @@
       <c r="M2" s="2">
         <v>103020</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>96521</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>84336</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="S2" s="5">
+        <v>93100</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="U2" s="2">
+        <v>94276</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="W2" s="2">
+        <v>91272</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>93600</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>92682</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>89932</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>111502</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>95506</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>95926</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>85134</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>100047</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>103948</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
@@ -6256,11 +6334,89 @@
       <c r="M3" s="3">
         <v>104378</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="3">
         <v>111259</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>101071</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="S3" s="5">
+        <v>162403</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="U3" s="3">
+        <v>112471</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="W3" s="2">
+        <v>93665</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>94134</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>103807</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>102926</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>85619</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>111682</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>87400</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>94571</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>169127</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>124683</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -6303,11 +6459,89 @@
       <c r="M4" s="2">
         <v>97544</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="2">
         <v>91265</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>114603</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="S4" s="5">
+        <v>91841</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="U4" s="2">
+        <v>84982</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="W4" s="3">
+        <v>104994</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>160382</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>84569</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>86201</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>101198</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>93816</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>114597</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>89399</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>95657</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>174402</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -6350,11 +6584,89 @@
       <c r="M5" s="2">
         <v>90040</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="2">
         <v>132036</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>99905</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="S5" s="5">
+        <v>87746</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="U5" s="2">
+        <v>131419</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="W5" s="2">
+        <v>88783</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>86808</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>84749</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>90465</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>109106</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>98244</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>97931</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>196996</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>89425</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>119902</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
@@ -6397,11 +6709,77 @@
       <c r="M6" s="2">
         <v>112767</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="2">
         <v>7651</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>128303</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="U6" s="2">
+        <v>85543</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="W6" s="2">
+        <v>144182</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>93679</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>88342</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>87683</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>106990</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>85496</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>94197</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>152662</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>84671</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -6444,11 +6822,37 @@
       <c r="M7" s="2">
         <v>3279</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="2">
         <v>3615</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>85293</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>94615</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>142260</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>90429</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
@@ -6491,11 +6895,17 @@
       <c r="M8" s="2">
         <v>2689</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2">
         <v>2081</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>82419</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
@@ -6538,10 +6948,10 @@
       <c r="M9" s="2">
         <v>1051</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="2">
         <v>759</v>
       </c>
     </row>
@@ -6585,10 +6995,10 @@
       <c r="M10" s="2">
         <v>2023</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="2">
         <v>308</v>
       </c>
     </row>
@@ -6632,10 +7042,10 @@
       <c r="M11" s="2">
         <v>1769</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="2">
         <v>2465</v>
       </c>
     </row>
@@ -6679,10 +7089,10 @@
       <c r="M12" s="2">
         <v>613</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="2">
         <v>606</v>
       </c>
     </row>
@@ -6726,10 +7136,10 @@
       <c r="M13" s="2">
         <v>478</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="2">
         <v>147</v>
       </c>
     </row>
@@ -6773,10 +7183,10 @@
       <c r="M14" s="2">
         <v>204</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="2">
         <v>204</v>
       </c>
     </row>
@@ -6820,10 +7230,10 @@
       <c r="M15" s="2">
         <v>41</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="2">
         <v>1361</v>
       </c>
     </row>
@@ -6867,10 +7277,10 @@
       <c r="M16" s="2">
         <v>626</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="2">
         <v>77</v>
       </c>
     </row>
@@ -6914,10 +7324,10 @@
       <c r="M17" s="2">
         <v>209</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="2">
         <v>798</v>
       </c>
     </row>
@@ -6961,10 +7371,10 @@
       <c r="M18" s="2">
         <v>850</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="2">
         <v>318</v>
       </c>
     </row>
@@ -7008,10 +7418,10 @@
       <c r="M19" s="2">
         <v>334</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="2">
         <v>172</v>
       </c>
     </row>
@@ -7055,10 +7465,10 @@
       <c r="M20" s="2">
         <v>102</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="2">
         <v>64</v>
       </c>
     </row>
@@ -7102,10 +7512,10 @@
       <c r="M21" s="2">
         <v>26</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="2">
         <v>34</v>
       </c>
     </row>
@@ -7149,10 +7559,10 @@
       <c r="M22" s="2">
         <v>57</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="2">
         <v>521</v>
       </c>
     </row>
@@ -7196,10 +7606,10 @@
       <c r="M23" s="2">
         <v>17</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="2">
         <v>140</v>
       </c>
     </row>
@@ -7243,10 +7653,10 @@
       <c r="M24" s="2">
         <v>701</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="2">
         <v>847</v>
       </c>
     </row>
@@ -7290,10 +7700,10 @@
       <c r="M25" s="2">
         <v>977</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="2">
         <v>128</v>
       </c>
     </row>
@@ -7337,10 +7747,10 @@
       <c r="M26" s="2">
         <v>238</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="2">
         <v>33</v>
       </c>
     </row>
@@ -7384,10 +7794,10 @@
       <c r="M27" s="2">
         <v>445</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="2">
         <v>114</v>
       </c>
     </row>
@@ -7431,10 +7841,10 @@
       <c r="M28" s="2">
         <v>338</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="2">
         <v>43</v>
       </c>
     </row>
@@ -7478,10 +7888,10 @@
       <c r="M29" s="2">
         <v>116</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="2" t="s">
         <v>1717</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="2">
         <v>13</v>
       </c>
     </row>
@@ -7525,10 +7935,10 @@
       <c r="M30" s="2">
         <v>30</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="2">
         <v>7</v>
       </c>
     </row>
@@ -7572,10 +7982,10 @@
       <c r="M31" s="2">
         <v>75</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="2">
         <v>317</v>
       </c>
     </row>
@@ -7619,10 +8029,10 @@
       <c r="M32" s="2">
         <v>13</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="2">
         <v>276</v>
       </c>
     </row>
@@ -7666,10 +8076,10 @@
       <c r="M33" s="2">
         <v>5</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="2">
         <v>229</v>
       </c>
     </row>
@@ -7713,10 +8123,10 @@
       <c r="M34" s="2">
         <v>636</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="2">
         <v>14</v>
       </c>
     </row>
@@ -7760,10 +8170,10 @@
       <c r="M35" s="2">
         <v>265</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="2">
         <v>7</v>
       </c>
     </row>
@@ -7807,10 +8217,10 @@
       <c r="M36" s="2">
         <v>210</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="2" t="s">
         <v>1845</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="2">
         <v>7</v>
       </c>
     </row>
@@ -7854,10 +8264,10 @@
       <c r="M37" s="2">
         <v>49</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="2">
         <v>7</v>
       </c>
     </row>
@@ -7901,10 +8311,10 @@
       <c r="M38" s="2">
         <v>65</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N38" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="2">
         <v>96</v>
       </c>
     </row>
@@ -7948,10 +8358,10 @@
       <c r="M39" s="2">
         <v>25</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="2">
         <v>26</v>
       </c>
     </row>
@@ -7995,10 +8405,10 @@
       <c r="M40" s="2">
         <v>120</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" s="2" t="s">
         <v>1806</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="2">
         <v>20</v>
       </c>
     </row>
@@ -8042,10 +8452,10 @@
       <c r="M41" s="2">
         <v>28</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" s="2" t="s">
         <v>1847</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="2">
         <v>20</v>
       </c>
     </row>
@@ -8089,10 +8499,10 @@
       <c r="M42" s="2">
         <v>15</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N42" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="2">
         <v>82</v>
       </c>
     </row>
@@ -8136,10 +8546,10 @@
       <c r="M43" s="2">
         <v>226</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="2">
         <v>51</v>
       </c>
     </row>
@@ -8183,10 +8593,10 @@
       <c r="M44" s="2">
         <v>59</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N44" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44" s="2">
         <v>25</v>
       </c>
     </row>
@@ -8230,10 +8640,10 @@
       <c r="M45" s="2">
         <v>27</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="N45" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="2">
         <v>13</v>
       </c>
     </row>
@@ -8277,10 +8687,10 @@
       <c r="M46" s="2">
         <v>27</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="2">
         <v>7</v>
       </c>
     </row>
@@ -8324,10 +8734,10 @@
       <c r="M47" s="2">
         <v>163</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="N47" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="2">
         <v>7</v>
       </c>
     </row>
@@ -8371,10 +8781,10 @@
       <c r="M48" s="2">
         <v>75</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N48" s="2" t="s">
         <v>1675</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="2">
         <v>7</v>
       </c>
     </row>
@@ -8418,10 +8828,10 @@
       <c r="M49" s="2">
         <v>43</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="2">
         <v>64</v>
       </c>
     </row>
@@ -8465,10 +8875,10 @@
       <c r="M50" s="2">
         <v>27</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="N50" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="2">
         <v>13</v>
       </c>
     </row>
@@ -8512,10 +8922,10 @@
       <c r="M51" s="2">
         <v>27</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51" s="2">
         <v>27</v>
       </c>
     </row>
@@ -8559,10 +8969,10 @@
       <c r="M52" s="2">
         <v>27</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="N52" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52" s="2">
         <v>7</v>
       </c>
     </row>
@@ -8606,10 +9016,10 @@
       <c r="M53" s="2">
         <v>27</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="N53" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53" s="2">
         <v>58</v>
       </c>
     </row>
@@ -8653,10 +9063,10 @@
       <c r="M54" s="2">
         <v>27</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54" s="2">
         <v>20</v>
       </c>
     </row>
@@ -8700,10 +9110,10 @@
       <c r="M55" s="2">
         <v>20</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="N55" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55" s="2">
         <v>73</v>
       </c>
     </row>
@@ -8747,10 +9157,10 @@
       <c r="M56" s="2">
         <v>275</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N56" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="2">
         <v>14</v>
       </c>
     </row>
@@ -8794,10 +9204,10 @@
       <c r="M57" s="2">
         <v>65</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="N57" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57" s="2">
         <v>57</v>
       </c>
     </row>
@@ -8841,10 +9251,10 @@
       <c r="M58" s="2">
         <v>89</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="N58" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="2">
         <v>19</v>
       </c>
     </row>
@@ -8888,10 +9298,10 @@
       <c r="M59" s="2">
         <v>85</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="N59" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59" s="2">
         <v>20</v>
       </c>
     </row>
@@ -8935,10 +9345,10 @@
       <c r="M60" s="2">
         <v>16</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="N60" s="2" t="s">
         <v>1848</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60" s="2">
         <v>7</v>
       </c>
     </row>
@@ -8982,10 +9392,10 @@
       <c r="M61" s="2">
         <v>8</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61" s="2">
         <v>18</v>
       </c>
     </row>
@@ -9029,10 +9439,10 @@
       <c r="M62" s="2">
         <v>227</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="N62" s="2" t="s">
         <v>1849</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62" s="2">
         <v>6</v>
       </c>
     </row>
@@ -9076,10 +9486,10 @@
       <c r="M63" s="2">
         <v>48</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="N63" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63" s="2">
         <v>6</v>
       </c>
     </row>
@@ -9123,10 +9533,10 @@
       <c r="M64" s="2">
         <v>24</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N64" s="2" t="s">
         <v>1851</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="2">
         <v>6</v>
       </c>
     </row>
@@ -9170,10 +9580,10 @@
       <c r="M65" s="2">
         <v>16</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="N65" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65" s="2">
         <v>18</v>
       </c>
     </row>
@@ -9217,10 +9627,10 @@
       <c r="M66" s="2">
         <v>8</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="N66" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66" s="2">
         <v>6</v>
       </c>
     </row>
@@ -9264,10 +9674,10 @@
       <c r="M67" s="2">
         <v>8</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="N67" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67" s="2">
         <v>60</v>
       </c>
     </row>
@@ -9311,10 +9721,10 @@
       <c r="M68" s="2">
         <v>8</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="N68" s="2" t="s">
         <v>1835</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68" s="2">
         <v>12</v>
       </c>
     </row>
@@ -9358,10 +9768,10 @@
       <c r="M69" s="2">
         <v>37</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="N69" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69" s="2">
         <v>24</v>
       </c>
     </row>
@@ -9405,10 +9815,10 @@
       <c r="M70" s="2">
         <v>32</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="N70" s="2" t="s">
         <v>1852</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70" s="2">
         <v>12</v>
       </c>
     </row>
@@ -9452,10 +9862,10 @@
       <c r="M71" s="2">
         <v>16</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="N71" s="2" t="s">
         <v>1853</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O71" s="2">
         <v>12</v>
       </c>
     </row>
@@ -9499,10 +9909,10 @@
       <c r="M72" s="2">
         <v>128</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="N72" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72" s="2">
         <v>12</v>
       </c>
     </row>
@@ -9546,10 +9956,10 @@
       <c r="M73" s="2">
         <v>13</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="N73" s="2" t="s">
         <v>1843</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73" s="2">
         <v>6</v>
       </c>
     </row>
@@ -9593,10 +10003,10 @@
       <c r="M74" s="2">
         <v>80</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="N74" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74" s="2">
         <v>6</v>
       </c>
     </row>
@@ -9640,10 +10050,10 @@
       <c r="M75" s="2">
         <v>16</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="N75" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="2">
         <v>6</v>
       </c>
     </row>
@@ -9687,10 +10097,10 @@
       <c r="M76" s="2">
         <v>16</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="N76" s="2" t="s">
         <v>1855</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76" s="2">
         <v>6</v>
       </c>
     </row>
@@ -32188,14 +32598,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -32208,6 +32610,14 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Results/20 Species - Same Weight/SEQUENCE-FINAL.xlsx
+++ b/Results/20 Species - Same Weight/SEQUENCE-FINAL.xlsx
@@ -4,18 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="17235" windowHeight="10230"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="17235" windowHeight="10230" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="5%" sheetId="1" r:id="rId1"/>
-    <sheet name="5% - NR" sheetId="2" r:id="rId2"/>
+    <sheet name="3%" sheetId="3" r:id="rId1"/>
+    <sheet name="3% - NR" sheetId="4" r:id="rId2"/>
+    <sheet name="4%" sheetId="5" r:id="rId3"/>
+    <sheet name="4% - NR" sheetId="6" r:id="rId4"/>
+    <sheet name="5%" sheetId="1" r:id="rId5"/>
+    <sheet name="5% - NR" sheetId="2" r:id="rId6"/>
+    <sheet name="8%" sheetId="7" r:id="rId7"/>
+    <sheet name="8% - NR" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5567" uniqueCount="2393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6405" uniqueCount="2396">
   <si>
     <t>CCA</t>
   </si>
@@ -7194,6 +7200,15 @@
   </si>
   <si>
     <t>CTATATAA</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>TG</t>
   </si>
 </sst>
 </file>
@@ -7351,7 +7366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7390,6 +7405,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7696,10 +7726,5058 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
+  <dimension ref="A1:AO12"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="41" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B1" s="8">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="8">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="8">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="8">
+        <v>5</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="8">
+        <v>6</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="8">
+        <v>7</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8">
+        <v>9</v>
+      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="8">
+        <v>10</v>
+      </c>
+      <c r="U1" s="9"/>
+      <c r="V1" s="8">
+        <v>11</v>
+      </c>
+      <c r="W1" s="9"/>
+      <c r="X1" s="8">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="8">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="8">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="8">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="8">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="8">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="8">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="8">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="9"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60300</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E2" s="2">
+        <v>64541</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G2" s="3">
+        <v>59888</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I2" s="3">
+        <v>54964</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="K2" s="3">
+        <v>62713</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="M2" s="2">
+        <v>83592</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="O2" s="2">
+        <v>77614</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>84336</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="S2" s="2">
+        <v>75512</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="U2" s="2">
+        <v>68652</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="W2" s="2">
+        <v>91272</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>93600</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>68124</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>61382</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>111502</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>65486</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>95926</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>54262</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>75457</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>103948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C3" s="2">
+        <v>86373</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E3" s="2">
+        <v>85184</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G3" s="2">
+        <v>82186</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="I3" s="2">
+        <v>76788</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K3" s="2">
+        <v>89342</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="M3" s="2">
+        <v>78070</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="O3" s="2">
+        <v>76077</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>101071</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="S3" s="2">
+        <v>93100</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="U3" s="2">
+        <v>94276</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="W3" s="2">
+        <v>76264</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>75820</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>92682</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>89932</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>71734</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>95506</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>77153</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>78163</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>100047</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>124683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C4" s="2">
+        <v>73225</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E4" s="2">
+        <v>76195</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G4" s="2">
+        <v>75589</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I4" s="2">
+        <v>69468</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K4" s="2">
+        <v>121041</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="M4" s="2">
+        <v>103020</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="O4" s="2">
+        <v>96521</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>114603</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="S4" s="2">
+        <v>162403</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="U4" s="2">
+        <v>112471</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="W4" s="2">
+        <v>93665</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>94134</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>103807</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>102926</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>85619</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>111682</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>69640</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>73412</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>169127</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>174402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C5" s="2">
+        <v>49909</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E5" s="2">
+        <v>56312</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G5" s="2">
+        <v>75480</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="I5" s="2">
+        <v>84727</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="K5" s="2">
+        <v>85364</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="M5" s="2">
+        <v>104378</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="O5" s="2">
+        <v>111259</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>99905</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="S5" s="2">
+        <v>91841</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="U5" s="2">
+        <v>84982</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="W5" s="2">
+        <v>104994</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>160382</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>84569</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>86201</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>67845</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>93816</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>50142</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>85134</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>95657</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>119902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C6" s="2">
+        <v>86119</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E6" s="2">
+        <v>86423</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G6" s="2">
+        <v>84717</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I6" s="2">
+        <v>73711</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K6" s="2">
+        <v>88237</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M6" s="2">
+        <v>97544</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="O6" s="2">
+        <v>91265</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>72556</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="S6" s="2">
+        <v>74500</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="U6" s="2">
+        <v>131419</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="W6" s="2">
+        <v>88783</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>86808</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>84749</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>82664</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>101198</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>76818</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>87400</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>94571</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>55089</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>71859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C7" s="2">
+        <v>88000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E7" s="2">
+        <v>87863</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G7" s="2">
+        <v>87129</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="I7" s="2">
+        <v>113887</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K7" s="2">
+        <v>105098</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="M7" s="2">
+        <v>65359</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="O7" s="2">
+        <v>65149</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>75943</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="S7" s="2">
+        <v>87746</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="U7" s="2">
+        <v>80967</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="W7" s="2">
+        <v>67101</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>67204</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>79962</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>90465</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>53604</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>98244</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>73279</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>89399</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>79863</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>78350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C8" s="2">
+        <v>105960</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E8" s="2">
+        <v>105421</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G8" s="2">
+        <v>101963</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I8" s="2">
+        <v>93400</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="K8" s="2">
+        <v>141022</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="M8" s="2">
+        <v>90040</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="O8" s="2">
+        <v>132036</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>128303</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="S8" s="2">
+        <v>77251</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="U8" s="2">
+        <v>67725</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="W8" s="2">
+        <v>144182</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>93679</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>68069</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>82565</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>109106</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>85496</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>114597</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>106996</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>71532</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>70094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C9" s="2">
+        <v>73272</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E9" s="2">
+        <v>70526</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G9" s="2">
+        <v>71600</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I9" s="2">
+        <v>97726</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K9" s="2">
+        <v>90794</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="M9" s="2">
+        <v>78317</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="O9" s="2">
+        <v>54264</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>64858</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="S9" s="2">
+        <v>68442</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="U9" s="2">
+        <v>85543</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="W9" s="2">
+        <v>53974</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>57861</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>88342</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>87683</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>106990</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>142260</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>97931</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>152662</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>78076</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>54360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C10" s="2">
+        <v>90539</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E10" s="2">
+        <v>90363</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G10" s="2">
+        <v>92189</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I10" s="2">
+        <v>147346</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="K10" s="2">
+        <v>73096</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="M10" s="2">
+        <v>112767</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="O10" s="2">
+        <v>73197</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>67595</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="S10" s="2">
+        <v>77861</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="U10" s="2">
+        <v>51803</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="W10" s="2">
+        <v>81286</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>80107</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>85293</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>74072</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>94615</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>71214</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>94197</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>71105</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>89425</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>61717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C11" s="2">
+        <v>98170</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E11" s="2">
+        <v>98685</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G11" s="2">
+        <v>124749</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="O11" s="2">
+        <v>71236</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="U11" s="2">
+        <v>79980</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="W11" s="3">
+        <v>58625</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>59521</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>82419</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>68431</v>
+      </c>
+      <c r="AH11" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI11" s="14">
+        <v>90429</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>84671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C12" s="2">
+        <v>55142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AO12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="10">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="8">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="8">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="8">
+        <v>5</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="8">
+        <v>6</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="8">
+        <v>7</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8">
+        <v>9</v>
+      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="8">
+        <v>10</v>
+      </c>
+      <c r="U1" s="9"/>
+      <c r="V1" s="8">
+        <v>11</v>
+      </c>
+      <c r="W1" s="9"/>
+      <c r="X1" s="8">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="8">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="8">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="8">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="8">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="8">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="8">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="8">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="9"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60300</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E2" s="2">
+        <v>64541</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G2" s="3">
+        <v>59888</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I2" s="3">
+        <v>54964</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="K2" s="3">
+        <v>62713</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="M2" s="2">
+        <v>83592</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="O2" s="2">
+        <v>77614</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>84336</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="S2" s="2">
+        <v>75512</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="U2" s="2">
+        <v>68652</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="W2" s="2">
+        <v>91272</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>93600</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>68124</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>61382</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>111502</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>65486</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>95926</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>54262</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>75457</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>103948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C3" s="2">
+        <v>86373</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E3" s="2">
+        <v>85184</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G3" s="2">
+        <v>82186</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="I3" s="2">
+        <v>76788</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K3" s="2">
+        <v>89342</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="M3" s="2">
+        <v>78070</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="O3" s="2">
+        <v>76077</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>101071</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="S3" s="2">
+        <v>93100</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="U3" s="2">
+        <v>94276</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="W3" s="2">
+        <v>76264</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>75820</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>92682</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>89932</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>71734</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>95506</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>77153</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>78163</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>100047</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>124683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C4" s="2">
+        <v>73225</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E4" s="2">
+        <v>76195</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G4" s="2">
+        <v>75589</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I4" s="2">
+        <v>69468</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K4" s="2">
+        <v>121041</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="M4" s="2">
+        <v>103020</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="O4" s="2">
+        <v>96521</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>114603</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="S4" s="2">
+        <v>162403</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="U4" s="2">
+        <v>112471</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="W4" s="2">
+        <v>93665</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>94134</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>103807</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>102926</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>85619</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>111682</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>69640</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>73412</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>169127</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>174402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C5" s="2">
+        <v>49909</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E5" s="2">
+        <v>56312</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G5" s="2">
+        <v>75480</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="I5" s="2">
+        <v>84727</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="K5" s="2">
+        <v>85364</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="M5" s="2">
+        <v>104378</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="O5" s="2">
+        <v>111259</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>99905</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="S5" s="2">
+        <v>91841</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="U5" s="2">
+        <v>84982</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="W5" s="2">
+        <v>104994</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>160382</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>84569</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>86201</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>67845</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>93816</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>50142</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>85134</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>95657</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>119902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C6" s="2">
+        <v>86119</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E6" s="2">
+        <v>86423</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G6" s="2">
+        <v>84717</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I6" s="2">
+        <v>73711</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K6" s="2">
+        <v>88237</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M6" s="2">
+        <v>97544</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="O6" s="2">
+        <v>91265</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>72556</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="S6" s="2">
+        <v>74500</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="U6" s="2">
+        <v>131419</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="W6" s="2">
+        <v>88783</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>86808</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>84749</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>82664</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>101198</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>76818</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>87400</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>94571</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>55089</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>71859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C7" s="2">
+        <v>88000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E7" s="2">
+        <v>87863</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G7" s="2">
+        <v>87129</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="I7" s="2">
+        <v>113887</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K7" s="2">
+        <v>105098</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="M7" s="2">
+        <v>65359</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="O7" s="2">
+        <v>65149</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>75943</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="S7" s="2">
+        <v>87746</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="U7" s="2">
+        <v>80967</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="W7" s="2">
+        <v>67101</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>67204</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>79962</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>90465</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>53604</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>98244</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>73279</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>89399</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>79863</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>78350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C8" s="2">
+        <v>105960</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E8" s="2">
+        <v>105421</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G8" s="2">
+        <v>101963</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I8" s="2">
+        <v>93400</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="K8" s="2">
+        <v>141022</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="M8" s="2">
+        <v>90040</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="O8" s="2">
+        <v>132036</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>128303</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="S8" s="2">
+        <v>77251</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="U8" s="2">
+        <v>67725</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="W8" s="2">
+        <v>144182</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>93679</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>68069</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>82565</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>109106</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>85496</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>114597</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>106996</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>71532</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>70094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C9" s="2">
+        <v>73272</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E9" s="2">
+        <v>70526</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G9" s="2">
+        <v>71600</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I9" s="2">
+        <v>97726</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K9" s="2">
+        <v>90794</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="M9" s="2">
+        <v>78317</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="O9" s="2">
+        <v>54264</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>64858</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="S9" s="2">
+        <v>68442</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="U9" s="2">
+        <v>85543</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="W9" s="2">
+        <v>53974</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>57861</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>88342</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>87683</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>106990</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>142260</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>97931</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>152662</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>78076</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>54360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C10" s="2">
+        <v>90539</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E10" s="2">
+        <v>90363</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G10" s="2">
+        <v>92189</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I10" s="2">
+        <v>147346</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="K10" s="2">
+        <v>73096</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="M10" s="2">
+        <v>112767</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="O10" s="2">
+        <v>73197</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>67595</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="S10" s="2">
+        <v>77861</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="U10" s="2">
+        <v>51803</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="W10" s="2">
+        <v>81286</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>80107</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>85293</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>74072</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>94615</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>71214</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>94197</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>71105</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>89425</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>61717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C11" s="2">
+        <v>98170</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E11" s="2">
+        <v>98685</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G11" s="2">
+        <v>124749</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="O11" s="2">
+        <v>71236</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="U11" s="2">
+        <v>79980</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="W11" s="3">
+        <v>58625</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>59521</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>82419</v>
+      </c>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>68431</v>
+      </c>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI11" s="14">
+        <v>90429</v>
+      </c>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>84671</v>
+      </c>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C12" s="2">
+        <v>55142</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AO10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="41" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B1" s="8">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="8">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="8">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="8">
+        <v>5</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="8">
+        <v>6</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="8">
+        <v>7</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8">
+        <v>9</v>
+      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="8">
+        <v>10</v>
+      </c>
+      <c r="U1" s="9"/>
+      <c r="V1" s="8">
+        <v>11</v>
+      </c>
+      <c r="W1" s="9"/>
+      <c r="X1" s="8">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="8">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="8">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="8">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="8">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="8">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="8">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="8">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="9"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="2">
+        <v>86373</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" s="2">
+        <v>85184</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G2" s="2">
+        <v>82186</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="I2" s="2">
+        <v>76788</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K2" s="2">
+        <v>89342</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="M2" s="2">
+        <v>83592</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="O2" s="2">
+        <v>77164</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>84336</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="S2" s="3">
+        <v>75512</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="U2" s="3">
+        <v>68652</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="W2" s="2">
+        <v>91272</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>93600</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>92682</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>89932</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>111502</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>95506</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>95926</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>78163</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>75457</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>103948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C3" s="2">
+        <v>73225</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E3" s="2">
+        <v>76195</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G3" s="2">
+        <v>75589</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I3" s="2">
+        <v>69468</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K3" s="2">
+        <v>121041</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="M3" s="2">
+        <v>78070</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="O3" s="2">
+        <v>76077</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>101071</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="S3" s="2">
+        <v>93100</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="U3" s="2">
+        <v>84276</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="W3" s="2">
+        <v>76264</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>75820</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>103807</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>102926</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>71734</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>111682</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>77153</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>73412</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>100047</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>124683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C4" s="2">
+        <v>86119</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4" s="2">
+        <v>86423</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G4" s="2">
+        <v>75480</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="I4" s="2">
+        <v>84727</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="K4" s="2">
+        <v>85364</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="M4" s="2">
+        <v>103020</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="O4" s="2">
+        <v>96521</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>114603</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="S4" s="2">
+        <v>162403</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="U4" s="2">
+        <v>112471</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="W4" s="2">
+        <v>93665</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>94134</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>84569</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>86201</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>85619</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>93816</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>69640</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>85134</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>169127</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>174402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8800</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87863</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G5" s="2">
+        <v>84717</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I5" s="2">
+        <v>73711</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K5" s="2">
+        <v>88237</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="M5" s="2">
+        <v>104378</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="O5" s="2">
+        <v>111259</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>99905</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="S5" s="2">
+        <v>91841</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="U5" s="2">
+        <v>84982</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="W5" s="2">
+        <v>104994</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>160382</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>84749</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>82664</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>101198</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>76818</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>87400</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>94571</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>95657</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>119902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C6" s="2">
+        <v>105960</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E6" s="2">
+        <v>105421</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G6" s="2">
+        <v>87129</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="I6" s="2">
+        <v>113887</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K6" s="2">
+        <v>105098</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M6" s="2">
+        <v>97544</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="O6" s="2">
+        <v>91265</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>72556</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="S6" s="2">
+        <v>74500</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="U6" s="2">
+        <v>131419</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="W6" s="2">
+        <v>88783</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>86808</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>79962</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>90465</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>109106</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>98244</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>73279</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>89399</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>79863</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>71859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C7" s="2">
+        <v>73272</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E7" s="2">
+        <v>70526</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G7" s="2">
+        <v>101963</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I7" s="2">
+        <v>93440</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="K7" s="2">
+        <v>141022</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="M7" s="2">
+        <v>90040</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="O7" s="2">
+        <v>132036</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>75943</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="S7" s="2">
+        <v>87746</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="U7" s="2">
+        <v>80967</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="W7" s="2">
+        <v>144182</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>67204</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>88342</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>82565</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>106990</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>85496</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>114597</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>106996</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>71532</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>78350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C8" s="2">
+        <v>90539</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E8" s="2">
+        <v>90363</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G8" s="2">
+        <v>71600</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I8" s="2">
+        <v>97726</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K8" s="2">
+        <v>90794</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="M8" s="3">
+        <v>78317</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="O8" s="3">
+        <v>73197</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>128303</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="S8" s="2">
+        <v>77251</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="U8" s="2">
+        <v>67725</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="W8" s="3">
+        <v>81286</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>93679</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>85293</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>87683</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>94615</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>142260</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>97931</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>152662</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>78076</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>70094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C9" s="2">
+        <v>98170</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E9" s="2">
+        <v>98685</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G9" s="2">
+        <v>91289</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I9" s="2">
+        <v>147346</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="K9" s="2">
+        <v>73096</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="M9" s="2">
+        <v>112767</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="O9" s="3">
+        <v>71236</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>67595</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="S9" s="2">
+        <v>68442</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="U9" s="2">
+        <v>85543</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>80107</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>82419</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>74072</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>68431</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>71214</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>94197</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>71105</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>89425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G10" s="2">
+        <v>124749</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="S10" s="3">
+        <v>77861</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="U10" s="3">
+        <v>79980</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>90429</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>84671</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AO10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="8">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="8">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="8">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="8">
+        <v>5</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="8">
+        <v>6</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="8">
+        <v>7</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8">
+        <v>9</v>
+      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="8">
+        <v>10</v>
+      </c>
+      <c r="U1" s="9"/>
+      <c r="V1" s="8">
+        <v>11</v>
+      </c>
+      <c r="W1" s="9"/>
+      <c r="X1" s="8">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="8">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="8">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="8">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="8">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="8">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="8">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="8">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="9"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="2">
+        <v>86373</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" s="2">
+        <v>85184</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G2" s="2">
+        <v>82186</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="I2" s="2">
+        <v>76788</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K2" s="2">
+        <v>89342</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="M2" s="2">
+        <v>83592</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="O2" s="2">
+        <v>77164</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>84336</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="S2" s="3">
+        <v>75512</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="U2" s="3">
+        <v>68652</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="W2" s="2">
+        <v>91272</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>93600</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>92682</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>89932</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>111502</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>95506</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>95926</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>78163</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>75457</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>103948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C3" s="2">
+        <v>73225</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E3" s="2">
+        <v>76195</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G3" s="2">
+        <v>75589</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I3" s="2">
+        <v>69468</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K3" s="2">
+        <v>121041</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="M3" s="2">
+        <v>78070</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="O3" s="2">
+        <v>76077</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>101071</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="S3" s="2">
+        <v>93100</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="U3" s="2">
+        <v>84276</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="W3" s="2">
+        <v>76264</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>75820</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>103807</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>102926</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>71734</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>111682</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>77153</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>73412</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>100047</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>124683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C4" s="2">
+        <v>86119</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4" s="2">
+        <v>86423</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G4" s="2">
+        <v>75480</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="I4" s="2">
+        <v>84727</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="K4" s="2">
+        <v>85364</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="M4" s="2">
+        <v>103020</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="O4" s="2">
+        <v>96521</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>114603</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="S4" s="2">
+        <v>162403</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="U4" s="2">
+        <v>112471</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="W4" s="2">
+        <v>93665</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>94134</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>84569</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>86201</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>85619</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>93816</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>69640</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>85134</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>169127</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>174402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8800</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87863</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G5" s="2">
+        <v>84717</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I5" s="2">
+        <v>73711</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K5" s="2">
+        <v>88237</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="M5" s="2">
+        <v>104378</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="O5" s="2">
+        <v>111259</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>99905</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="S5" s="2">
+        <v>91841</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="U5" s="2">
+        <v>84982</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="W5" s="2">
+        <v>104994</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>160382</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>84749</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>82664</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>101198</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>76818</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>87400</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>94571</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>95657</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>119902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C6" s="2">
+        <v>105960</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E6" s="2">
+        <v>105421</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G6" s="2">
+        <v>87129</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="I6" s="2">
+        <v>113887</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K6" s="2">
+        <v>105098</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M6" s="2">
+        <v>97544</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="O6" s="2">
+        <v>91265</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>72556</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="S6" s="2">
+        <v>74500</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="U6" s="2">
+        <v>131419</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="W6" s="2">
+        <v>88783</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>86808</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>79962</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>90465</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>109106</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>98244</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>73279</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>89399</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>79863</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>71859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C7" s="2">
+        <v>73272</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E7" s="2">
+        <v>70526</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G7" s="2">
+        <v>101963</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I7" s="2">
+        <v>93440</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="K7" s="2">
+        <v>141022</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="M7" s="2">
+        <v>90040</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="O7" s="2">
+        <v>132036</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>75943</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="S7" s="2">
+        <v>87746</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="U7" s="2">
+        <v>80967</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="W7" s="2">
+        <v>144182</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>67204</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>88342</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>82565</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>106990</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>85496</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>114597</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>106996</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>71532</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>78350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C8" s="2">
+        <v>90539</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E8" s="2">
+        <v>90363</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G8" s="2">
+        <v>71600</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I8" s="2">
+        <v>97726</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K8" s="2">
+        <v>90794</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="M8" s="3">
+        <v>78317</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="O8" s="3">
+        <v>73197</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>128303</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="S8" s="2">
+        <v>77251</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="U8" s="2">
+        <v>67725</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="W8" s="3">
+        <v>81286</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>93679</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>85293</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>87683</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>94615</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>142260</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>97931</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>152662</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>78076</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>70094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C9" s="2">
+        <v>98170</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E9" s="2">
+        <v>98685</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G9" s="2">
+        <v>91289</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I9" s="2">
+        <v>147346</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="K9" s="2">
+        <v>73096</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="M9" s="2">
+        <v>112767</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="O9" s="3">
+        <v>71236</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>67595</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="S9" s="2">
+        <v>68442</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="U9" s="2">
+        <v>85543</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>80107</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>82419</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>74072</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>68431</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>71214</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>94197</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>71105</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>89425</v>
+      </c>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G10" s="2">
+        <v>124749</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="S10" s="3">
+        <v>77861</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="U10" s="3">
+        <v>79980</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>90429</v>
+      </c>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>84671</v>
+      </c>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:AO1188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8:AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47169,19 +52247,1229 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="10">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="8">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="8">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="8">
+        <v>5</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="8">
+        <v>6</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="8">
+        <v>7</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8">
+        <v>9</v>
+      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="8">
+        <v>10</v>
+      </c>
+      <c r="U1" s="9"/>
+      <c r="V1" s="8">
+        <v>11</v>
+      </c>
+      <c r="W1" s="9"/>
+      <c r="X1" s="8">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="8">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="8">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="8">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="8">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="8">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="8">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="8">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="9"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="4">
+        <v>86373</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" s="2">
+        <v>85184</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G2" s="2">
+        <v>82186</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="I2" s="5">
+        <v>84727</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K2" s="2">
+        <v>89342</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="M2" s="2">
+        <v>103020</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="O2" s="2">
+        <v>96521</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>84336</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="S2" s="5">
+        <v>93100</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="U2" s="5">
+        <v>94276</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="W2" s="2">
+        <v>91272</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>93600</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>92682</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>89932</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>111502</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>95506</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>95926</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>85134</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>100047</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>103948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" s="2">
+        <v>86119</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E3" s="2">
+        <v>86423</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G3" s="2">
+        <v>84717</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="I3" s="6">
+        <v>113887</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K3" s="2">
+        <v>121041</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="M3" s="3">
+        <v>104378</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="O3" s="3">
+        <v>111259</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>101071</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="S3" s="5">
+        <v>162403</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="U3" s="6">
+        <v>112471</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="W3" s="2">
+        <v>93665</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>94134</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>103807</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>102926</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>85619</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>111682</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>87400</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>94571</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>169127</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>124683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C4" s="2">
+        <v>88000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E4" s="2">
+        <v>87863</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G4" s="2">
+        <v>87129</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I4" s="5">
+        <v>93400</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="K4" s="2">
+        <v>85364</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M4" s="2">
+        <v>97544</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="O4" s="2">
+        <v>91265</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>114603</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="S4" s="5">
+        <v>91841</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="U4" s="5">
+        <v>84982</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="W4" s="3">
+        <v>104994</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>160382</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>84569</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>86201</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>101198</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>93816</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>114597</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>89399</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>95657</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>174402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C5" s="3">
+        <v>105960</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E5" s="3">
+        <v>105421</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="G5" s="3">
+        <v>101963</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="I5" s="6">
+        <v>97726</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K5" s="2">
+        <v>88237</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="M5" s="2">
+        <v>90040</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="O5" s="2">
+        <v>132036</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>99905</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="S5" s="5">
+        <v>87746</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="U5" s="5">
+        <v>131419</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="W5" s="2">
+        <v>88783</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>86808</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>84749</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>90465</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>109106</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>98244</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>97931</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>196996</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>89425</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>119902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" s="2">
+        <v>90539</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E6" s="2">
+        <v>90363</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G6" s="2">
+        <v>91289</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I6" s="5">
+        <v>147346</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="K6" s="3">
+        <v>105098</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="M6" s="2">
+        <v>112767</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>128303</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="U6" s="5">
+        <v>85543</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="W6" s="2">
+        <v>144182</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>93679</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>88342</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>87683</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>106990</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>85496</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>94197</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>152662</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>84671</v>
+      </c>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" s="3">
+        <v>98170</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E7" s="3">
+        <v>98685</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G7" s="2">
+        <v>124749</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K7" s="7">
+        <v>141022</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>85293</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>94615</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>142260</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>90429</v>
+      </c>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Z8" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>82419</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="41" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="15">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="8">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="8">
+        <v>5</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="17">
+        <v>6</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="8">
+        <v>7</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="8">
+        <v>9</v>
+      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="8">
+        <v>10</v>
+      </c>
+      <c r="U1" s="9"/>
+      <c r="V1" s="8">
+        <v>11</v>
+      </c>
+      <c r="W1" s="9"/>
+      <c r="X1" s="8">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="17">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="17">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="17">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="8">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="17">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="8">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="8">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="8">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="9"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I2" s="2">
+        <v>147346</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="K2" s="3">
+        <v>141022</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="O2" s="2">
+        <v>132036</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="S2" s="3">
+        <v>162403</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="U2" s="2">
+        <v>131419</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="W2" s="2">
+        <v>144182</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>160382</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>142260</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>152662</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>169127</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>174402</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="15">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="8">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="8">
+        <v>5</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="17">
+        <v>6</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="8">
+        <v>7</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="8">
+        <v>9</v>
+      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="8">
+        <v>10</v>
+      </c>
+      <c r="U1" s="9"/>
+      <c r="V1" s="8">
+        <v>11</v>
+      </c>
+      <c r="W1" s="9"/>
+      <c r="X1" s="8">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="17">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="17">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="17">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="8">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="17">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="8">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="8">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="8">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="9"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I2" s="2">
+        <v>147346</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="K2" s="3">
+        <v>141022</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="O2" s="2">
+        <v>132036</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="S2" s="3">
+        <v>162403</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="U2" s="2">
+        <v>131419</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="W2" s="2">
+        <v>144182</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>160382</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>142260</v>
+      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>152662</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>169127</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>174402</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>